--- a/Annotations/Old/TheThreeMusketeers.xlsx
+++ b/Annotations/Old/TheThreeMusketeers.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Dropbox\University\Workspace\Master\Excel Files\Old\Annotated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niels\Dropbox\University\Workspace\Master\Excel Files\Annotations\Old\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="musketeers" sheetId="1" r:id="rId1"/>
@@ -1728,24 +1728,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P265"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="53.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2"/>
-    <col min="7" max="11" width="15.42578125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="53.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="7" max="11" width="15.44140625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>263</v>
       </c>
@@ -1795,10 +1795,10 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f t="shared" ref="A2:A65" ca="1" si="0">RAND()</f>
-        <v>0.27009316366680314</v>
+        <v>0.74029273687077601</v>
       </c>
       <c r="B2" s="2">
         <v>88</v>
@@ -1822,10 +1822,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92002890543587101</v>
+        <v>0.77600136877600412</v>
       </c>
       <c r="B3" s="2">
         <v>237</v>
@@ -1846,10 +1846,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6921958082009358E-2</v>
+        <v>0.3506121556805154</v>
       </c>
       <c r="B4" s="2">
         <v>7</v>
@@ -1867,10 +1867,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86113679700581502</v>
+        <v>9.4905015215534738E-2</v>
       </c>
       <c r="B5" s="2">
         <v>162</v>
@@ -1894,10 +1894,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9078881896570827E-2</v>
+        <v>0.71188466457162802</v>
       </c>
       <c r="B6" s="2">
         <v>129</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1798044575339266</v>
+        <v>0.16712436988983004</v>
       </c>
       <c r="B7" s="2">
         <v>78</v>
@@ -1939,10 +1939,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44192581968405997</v>
+        <v>8.6916053525294301E-2</v>
       </c>
       <c r="B8" s="2">
         <v>64</v>
@@ -1966,10 +1966,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9855352324285525E-2</v>
+        <v>0.41617844938250148</v>
       </c>
       <c r="B9" s="2">
         <v>166</v>
@@ -1990,10 +1990,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12195775315061841</v>
+        <v>2.5618066013702867E-2</v>
       </c>
       <c r="B10" s="2">
         <v>127</v>
@@ -2014,10 +2014,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71036718210083027</v>
+        <v>0.74304691808267298</v>
       </c>
       <c r="B11" s="2">
         <v>73</v>
@@ -2038,10 +2038,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18385769415911712</v>
+        <v>0.45001739888755865</v>
       </c>
       <c r="B12" s="2">
         <v>65</v>
@@ -2065,10 +2065,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57529190848971712</v>
+        <v>0.89365468145380633</v>
       </c>
       <c r="B13" s="2">
         <v>261</v>
@@ -2092,10 +2092,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36595470999995194</v>
+        <v>0.3299929495814734</v>
       </c>
       <c r="B14" s="2">
         <v>210</v>
@@ -2116,10 +2116,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47173747850375447</v>
+        <v>0.8084995861934986</v>
       </c>
       <c r="B15" s="2">
         <v>42</v>
@@ -2140,10 +2140,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2242875095557465</v>
+        <v>0.72321987657509046</v>
       </c>
       <c r="B16" s="2">
         <v>57</v>
@@ -2164,10 +2164,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90462228298664304</v>
+        <v>0.78491933860439023</v>
       </c>
       <c r="B17" s="2">
         <v>46</v>
@@ -2191,10 +2191,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67594310761394827</v>
+        <v>0.13104122979642074</v>
       </c>
       <c r="B18" s="2">
         <v>29</v>
@@ -2212,10 +2212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33326799018880693</v>
+        <v>5.735571686457186E-2</v>
       </c>
       <c r="B19" s="2">
         <v>6</v>
@@ -2236,10 +2236,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5319134377654251</v>
+        <v>0.69864179786342973</v>
       </c>
       <c r="B20" s="2">
         <v>113</v>
@@ -2260,10 +2260,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67819564422274814</v>
+        <v>0.98706346428568537</v>
       </c>
       <c r="B21" s="2">
         <v>137</v>
@@ -2284,10 +2284,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74492276553526737</v>
+        <v>0.12033981541753069</v>
       </c>
       <c r="B22" s="2">
         <v>196</v>
@@ -2311,10 +2311,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8524461620684386</v>
+        <v>0.57116508175196223</v>
       </c>
       <c r="B23" s="2">
         <v>116</v>
@@ -2338,10 +2338,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8071933764258622</v>
+        <v>0.12376736717253844</v>
       </c>
       <c r="B24" s="2">
         <v>238</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77528170778956096</v>
+        <v>0.81477218794923423</v>
       </c>
       <c r="B25" s="2">
         <v>157</v>
@@ -2386,10 +2386,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47944880523646904</v>
+        <v>0.4025882527735265</v>
       </c>
       <c r="B26" s="2">
         <v>264</v>
@@ -2413,10 +2413,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35817451315294513</v>
+        <v>0.33238691233455553</v>
       </c>
       <c r="B27" s="2">
         <v>81</v>
@@ -2440,10 +2440,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31134632014600327</v>
+        <v>0.597042463868935</v>
       </c>
       <c r="B28" s="2">
         <v>104</v>
@@ -2464,10 +2464,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67546344067355724</v>
+        <v>0.54813313312647294</v>
       </c>
       <c r="B29" s="2">
         <v>1</v>
@@ -2488,10 +2488,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96240025655863681</v>
+        <v>0.75768300335178129</v>
       </c>
       <c r="B30" s="2">
         <v>68</v>
@@ -2515,10 +2515,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13951927479689619</v>
+        <v>0.57203379728257664</v>
       </c>
       <c r="B31" s="2">
         <v>54</v>
@@ -2539,10 +2539,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83194513943036463</v>
+        <v>0.47771394866758132</v>
       </c>
       <c r="B32" s="2">
         <v>208</v>
@@ -2563,10 +2563,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94371412905950802</v>
+        <v>0.9085663393287654</v>
       </c>
       <c r="B33" s="2">
         <v>39</v>
@@ -2590,10 +2590,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9320062340896087</v>
+        <v>5.8383772201572981E-2</v>
       </c>
       <c r="B34" s="2">
         <v>119</v>
@@ -2617,10 +2617,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23845230467512946</v>
+        <v>7.1081441855929017E-2</v>
       </c>
       <c r="B35" s="2">
         <v>22</v>
@@ -2641,10 +2641,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79254461457949998</v>
+        <v>3.2605461906472066E-2</v>
       </c>
       <c r="B36" s="2">
         <v>240</v>
@@ -2662,10 +2662,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32681537174224362</v>
+        <v>2.8262304879894784E-2</v>
       </c>
       <c r="B37" s="2">
         <v>83</v>
@@ -2686,10 +2686,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28527844608867459</v>
+        <v>0.41567067302385585</v>
       </c>
       <c r="B38" s="2">
         <v>234</v>
@@ -2707,10 +2707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76608169594979636</v>
+        <v>0.31003667506333465</v>
       </c>
       <c r="B39" s="2">
         <v>51</v>
@@ -2731,10 +2731,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45670373157311051</v>
+        <v>0.88326712122910966</v>
       </c>
       <c r="B40" s="2">
         <v>153</v>
@@ -2761,10 +2761,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50936670775678861</v>
+        <v>0.14355354992420588</v>
       </c>
       <c r="B41" s="2">
         <v>249</v>
@@ -2785,10 +2785,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12085721953100492</v>
+        <v>0.13355513368517025</v>
       </c>
       <c r="B42" s="2">
         <v>173</v>
@@ -2809,10 +2809,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24071027511860588</v>
+        <v>0.86594369208848354</v>
       </c>
       <c r="B43" s="2">
         <v>20</v>
@@ -2833,10 +2833,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27899618657458836</v>
+        <v>0.20420551298029777</v>
       </c>
       <c r="B44" s="2">
         <v>211</v>
@@ -2857,10 +2857,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0901985688908598E-2</v>
+        <v>0.81989527360595349</v>
       </c>
       <c r="B45" s="2">
         <v>221</v>
@@ -2884,10 +2884,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4077773292608424E-2</v>
+        <v>0.22376635033183379</v>
       </c>
       <c r="B46" s="2">
         <v>235</v>
@@ -2908,10 +2908,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17038094551919214</v>
+        <v>0.96616248111371039</v>
       </c>
       <c r="B47" s="2">
         <v>96</v>
@@ -2932,10 +2932,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83483354145098509</v>
+        <v>0.52896867254331781</v>
       </c>
       <c r="B48" s="2">
         <v>76</v>
@@ -2959,10 +2959,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20467143460236181</v>
+        <v>6.9870071166687753E-2</v>
       </c>
       <c r="B49" s="2">
         <v>217</v>
@@ -2986,10 +2986,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62742470678138829</v>
+        <v>0.46148741280610417</v>
       </c>
       <c r="B50" s="2">
         <v>24</v>
@@ -3010,10 +3010,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61101787037790423</v>
+        <v>0.88184205730434961</v>
       </c>
       <c r="B51" s="2">
         <v>186</v>
@@ -3034,10 +3034,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38284568230281779</v>
+        <v>0.49971754228733922</v>
       </c>
       <c r="B52" s="2">
         <v>40</v>
@@ -3061,10 +3061,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39144131291368844</v>
+        <v>0.20201334329582921</v>
       </c>
       <c r="B53" s="2">
         <v>134</v>
@@ -3088,10 +3088,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58324564362104225</v>
+        <v>0.87795732467827936</v>
       </c>
       <c r="B54" s="2">
         <v>122</v>
@@ -3118,10 +3118,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2018672294826207</v>
+        <v>0.74116914993547234</v>
       </c>
       <c r="B55" s="2">
         <v>259</v>
@@ -3142,10 +3142,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77263715732869731</v>
+        <v>0.13328324874714614</v>
       </c>
       <c r="B56" s="2">
         <v>141</v>
@@ -3169,10 +3169,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14038358299820486</v>
+        <v>0.78045252889159333</v>
       </c>
       <c r="B57" s="2">
         <v>85</v>
@@ -3196,10 +3196,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7287717502400719E-2</v>
+        <v>0.42950996408271314</v>
       </c>
       <c r="B58" s="2">
         <v>105</v>
@@ -3220,10 +3220,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63352918298392347</v>
+        <v>0.91950973457342022</v>
       </c>
       <c r="B59" s="2">
         <v>47</v>
@@ -3247,10 +3247,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41842422754961162</v>
+        <v>0.28880594972288198</v>
       </c>
       <c r="B60" s="2">
         <v>124</v>
@@ -3271,10 +3271,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9815106003641868</v>
+        <v>0.28304745544150967</v>
       </c>
       <c r="B61" s="2">
         <v>184</v>
@@ -3298,10 +3298,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21567007516458681</v>
+        <v>0.45374534850325332</v>
       </c>
       <c r="B62" s="2">
         <v>48</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26202765256725591</v>
+        <v>0.70816880752529865</v>
       </c>
       <c r="B63" s="2">
         <v>189</v>
@@ -3340,10 +3340,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95693517827269547</v>
+        <v>0.52655284387172829</v>
       </c>
       <c r="B64" s="2">
         <v>8</v>
@@ -3364,10 +3364,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16817211697456758</v>
+        <v>0.18799344361376669</v>
       </c>
       <c r="B65" s="2">
         <v>91</v>
@@ -3388,10 +3388,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f t="shared" ref="A66:A129" ca="1" si="1">RAND()</f>
-        <v>0.57575084734377724</v>
+        <v>0.54236397777694922</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
@@ -3409,10 +3409,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89577314863693669</v>
+        <v>0.7748234523326214</v>
       </c>
       <c r="B67" s="2">
         <v>67</v>
@@ -3433,10 +3433,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52718316125764819</v>
+        <v>0.81121101118491057</v>
       </c>
       <c r="B68" s="2">
         <v>63</v>
@@ -3457,10 +3457,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.65629936281390466</v>
+        <v>9.9189027978600297E-2</v>
       </c>
       <c r="B69" s="2">
         <v>100</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2236544598909731</v>
+        <v>0.70654362290217043</v>
       </c>
       <c r="B70" s="2">
         <v>178</v>
@@ -3505,10 +3505,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16851800572956743</v>
+        <v>6.2080711475887673E-2</v>
       </c>
       <c r="B71" s="2">
         <v>205</v>
@@ -3532,10 +3532,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36658904583897822</v>
+        <v>0.62490959253698863</v>
       </c>
       <c r="B72" s="2">
         <v>165</v>
@@ -3559,10 +3559,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99420992277476239</v>
+        <v>0.85355873334802645</v>
       </c>
       <c r="B73" s="2">
         <v>241</v>
@@ -3583,10 +3583,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16989064602712856</v>
+        <v>5.3855832330229503E-2</v>
       </c>
       <c r="B74" s="2">
         <v>167</v>
@@ -3607,10 +3607,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66231530453651177</v>
+        <v>0.85892553121262027</v>
       </c>
       <c r="B75" s="2">
         <v>254</v>
@@ -3640,10 +3640,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78691983375322305</v>
+        <v>0.43041740240596238</v>
       </c>
       <c r="B76" s="2">
         <v>69</v>
@@ -3664,10 +3664,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86275035392655308</v>
+        <v>0.53309940768070663</v>
       </c>
       <c r="B77" s="2">
         <v>130</v>
@@ -3688,10 +3688,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.16002333337510755</v>
+        <v>9.7878444321410019E-2</v>
       </c>
       <c r="B78" s="2">
         <v>257</v>
@@ -3715,10 +3715,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7046926327391988</v>
+        <v>0.475830341977584</v>
       </c>
       <c r="B79" s="2">
         <v>23</v>
@@ -3739,10 +3739,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.92171798654926385</v>
+        <v>0.50976500542456782</v>
       </c>
       <c r="B80" s="2">
         <v>32</v>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20021136206871382</v>
+        <v>0.55054034517542172</v>
       </c>
       <c r="B81" s="2">
         <v>120</v>
@@ -3784,10 +3784,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7335616299586073</v>
+        <v>0.86497178272693076</v>
       </c>
       <c r="B82" s="2">
         <v>213</v>
@@ -3808,10 +3808,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10836789901575117</v>
+        <v>0.98211654838976026</v>
       </c>
       <c r="B83" s="2">
         <v>136</v>
@@ -3832,10 +3832,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91261349209920284</v>
+        <v>0.42534211971078051</v>
       </c>
       <c r="B84" s="2">
         <v>154</v>
@@ -3856,10 +3856,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.47888088129477469</v>
+        <v>5.56430265729424E-2</v>
       </c>
       <c r="B85" s="2">
         <v>180</v>
@@ -3880,10 +3880,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29779308155031137</v>
+        <v>0.529249157176226</v>
       </c>
       <c r="B86" s="2">
         <v>133</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71277501908229701</v>
+        <v>0.52843986093088857</v>
       </c>
       <c r="B87" s="2">
         <v>89</v>
@@ -3925,10 +3925,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44850654934037149</v>
+        <v>0.54749272290641593</v>
       </c>
       <c r="B88" s="2">
         <v>114</v>
@@ -3949,10 +3949,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20617099100753478</v>
+        <v>0.5537914855762871</v>
       </c>
       <c r="B89" s="2">
         <v>163</v>
@@ -3973,10 +3973,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15129293021715529</v>
+        <v>0.29968107522652176</v>
       </c>
       <c r="B90" s="2">
         <v>75</v>
@@ -3997,10 +3997,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18915747072677447</v>
+        <v>0.28521885479102915</v>
       </c>
       <c r="B91" s="2">
         <v>87</v>
@@ -4021,10 +4021,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75155876257912657</v>
+        <v>0.21866418307235747</v>
       </c>
       <c r="B92" s="2">
         <v>251</v>
@@ -4045,10 +4045,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.5995832372804624E-2</v>
+        <v>9.610977693933842E-2</v>
       </c>
       <c r="B93" s="2">
         <v>18</v>
@@ -4069,10 +4069,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48967739589246739</v>
+        <v>0.44438562055137831</v>
       </c>
       <c r="B94" s="2">
         <v>50</v>
@@ -4099,10 +4099,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87101933778346241</v>
+        <v>0.71784243596637387</v>
       </c>
       <c r="B95" s="2">
         <v>218</v>
@@ -4123,10 +4123,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69262375620204408</v>
+        <v>0.33184547274459342</v>
       </c>
       <c r="B96" s="2">
         <v>149</v>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36366482088497887</v>
+        <v>0.8646727151535627</v>
       </c>
       <c r="B97" s="2">
         <v>99</v>
@@ -4168,10 +4168,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.74226372748073155</v>
+        <v>0.23509142208624256</v>
       </c>
       <c r="B98" s="2">
         <v>49</v>
@@ -4192,10 +4192,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36296602044902126</v>
+        <v>0.41395205593116413</v>
       </c>
       <c r="B99" s="2">
         <v>21</v>
@@ -4216,10 +4216,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25096102331558778</v>
+        <v>0.51610304833599807</v>
       </c>
       <c r="B100" s="2">
         <v>215</v>
@@ -4237,10 +4237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43433895280133872</v>
+        <v>0.36666210321881287</v>
       </c>
       <c r="B101" s="2">
         <v>229</v>
@@ -4261,10 +4261,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38831844415880679</v>
+        <v>0.44608541264963097</v>
       </c>
       <c r="B102" s="2">
         <v>146</v>
@@ -4285,10 +4285,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.99800416980607864</v>
+        <v>0.65654531903424018</v>
       </c>
       <c r="B103" s="2">
         <v>258</v>
@@ -4312,10 +4312,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30265121375329729</v>
+        <v>0.48804282510174191</v>
       </c>
       <c r="B104" s="2">
         <v>90</v>
@@ -4339,10 +4339,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.14503496090430934</v>
+        <v>0.93345012544259487</v>
       </c>
       <c r="B105" s="2">
         <v>143</v>
@@ -4363,10 +4363,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94270708311386242</v>
+        <v>4.5913589230741847E-2</v>
       </c>
       <c r="B106" s="2">
         <v>151</v>
@@ -4387,10 +4387,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78688514526982145</v>
+        <v>0.88622308807000283</v>
       </c>
       <c r="B107" s="2">
         <v>25</v>
@@ -4414,10 +4414,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89105022977545667</v>
+        <v>0.17026510990277155</v>
       </c>
       <c r="B108" s="2">
         <v>247</v>
@@ -4438,10 +4438,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.77895150446156036</v>
+        <v>0.26765773211591315</v>
       </c>
       <c r="B109" s="2">
         <v>37</v>
@@ -4465,10 +4465,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43314500933677247</v>
+        <v>0.88643360968868923</v>
       </c>
       <c r="B110" s="2">
         <v>52</v>
@@ -4489,10 +4489,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.23117502326968797</v>
+        <v>6.5822229291868872E-2</v>
       </c>
       <c r="B111" s="2">
         <v>131</v>
@@ -4516,10 +4516,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39374160316355522</v>
+        <v>0.63364625457318302</v>
       </c>
       <c r="B112" s="2">
         <v>97</v>
@@ -4543,10 +4543,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81666620867695883</v>
+        <v>0.60302524043100902</v>
       </c>
       <c r="B113" s="2">
         <v>224</v>
@@ -4564,10 +4564,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25771618008084263</v>
+        <v>0.52013742529817864</v>
       </c>
       <c r="B114" s="2">
         <v>225</v>
@@ -4588,10 +4588,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19701131907128022</v>
+        <v>0.25872084458002931</v>
       </c>
       <c r="B115" s="2">
         <v>84</v>
@@ -4612,10 +4612,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96809965968181344</v>
+        <v>0.49790626581931174</v>
       </c>
       <c r="B116" s="2">
         <v>220</v>
@@ -4639,10 +4639,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78310913884665245</v>
+        <v>0.898889166570915</v>
       </c>
       <c r="B117" s="2">
         <v>231</v>
@@ -4660,10 +4660,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38136679950731445</v>
+        <v>3.0637216846066906E-2</v>
       </c>
       <c r="B118" s="2">
         <v>144</v>
@@ -4684,10 +4684,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52206073016200027</v>
+        <v>0.12623588962692334</v>
       </c>
       <c r="B119" s="2">
         <v>110</v>
@@ -4705,10 +4705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.24489155111935013</v>
+        <v>0.61772942868431258</v>
       </c>
       <c r="B120" s="2">
         <v>175</v>
@@ -4729,10 +4729,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59227746413083737</v>
+        <v>0.32143344185444522</v>
       </c>
       <c r="B121" s="2">
         <v>260</v>
@@ -4750,10 +4750,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3242759346731026E-3</v>
+        <v>0.4426525544161698</v>
       </c>
       <c r="B122" s="2">
         <v>26</v>
@@ -4771,10 +4771,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52465633429381031</v>
+        <v>8.9360488201843946E-3</v>
       </c>
       <c r="B123" s="2">
         <v>182</v>
@@ -4798,10 +4798,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58551982087237331</v>
+        <v>6.2475839316435744E-2</v>
       </c>
       <c r="B124" s="2">
         <v>61</v>
@@ -4822,10 +4822,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62952718557687137</v>
+        <v>0.93366556046218185</v>
       </c>
       <c r="B125" s="2">
         <v>207</v>
@@ -4846,10 +4846,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62368397371179651</v>
+        <v>0.62051655066436495</v>
       </c>
       <c r="B126" s="2">
         <v>161</v>
@@ -4873,10 +4873,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10003108852936504</v>
+        <v>0.43941979848953294</v>
       </c>
       <c r="B127" s="2">
         <v>53</v>
@@ -4900,10 +4900,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51537283565530045</v>
+        <v>0.98270264633937299</v>
       </c>
       <c r="B128" s="2">
         <v>199</v>
@@ -4927,10 +4927,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9.8705393038918343E-2</v>
+        <v>0.37274473343886205</v>
       </c>
       <c r="B129" s="2">
         <v>4</v>
@@ -4948,10 +4948,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <f t="shared" ref="A130:A193" ca="1" si="2">RAND()</f>
-        <v>0.31919442321823011</v>
+        <v>4.099008511917579E-2</v>
       </c>
       <c r="B130" s="2">
         <v>179</v>
@@ -4972,10 +4972,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51898279174935991</v>
+        <v>0.57607295906742839</v>
       </c>
       <c r="B131" s="2">
         <v>121</v>
@@ -5002,10 +5002,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81511702413114173</v>
+        <v>0.97990418530911771</v>
       </c>
       <c r="B132" s="2">
         <v>19</v>
@@ -5029,10 +5029,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4055061460549878</v>
+        <v>0.73639261361786212</v>
       </c>
       <c r="B133" s="2">
         <v>66</v>
@@ -5056,10 +5056,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79032720487588837</v>
+        <v>0.38273524244443147</v>
       </c>
       <c r="B134" s="2">
         <v>228</v>
@@ -5077,10 +5077,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50785553322848664</v>
+        <v>0.94094754568911843</v>
       </c>
       <c r="B135" s="2">
         <v>248</v>
@@ -5104,10 +5104,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71579464208680299</v>
+        <v>3.3168186045804293E-2</v>
       </c>
       <c r="B136" s="2">
         <v>80</v>
@@ -5128,10 +5128,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22783531488562814</v>
+        <v>0.42367979206903872</v>
       </c>
       <c r="B137" s="2">
         <v>33</v>
@@ -5161,10 +5161,10 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26406629886549327</v>
+        <v>0.54655680115185135</v>
       </c>
       <c r="B138" s="2">
         <v>45</v>
@@ -5188,10 +5188,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16703937860622453</v>
+        <v>0.69646255901939058</v>
       </c>
       <c r="B139" s="2">
         <v>31</v>
@@ -5215,10 +5215,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85518321394527719</v>
+        <v>0.54298639560420869</v>
       </c>
       <c r="B140" s="2">
         <v>255</v>
@@ -5239,10 +5239,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88075148134389381</v>
+        <v>7.5631983664126823E-2</v>
       </c>
       <c r="B141" s="2">
         <v>10</v>
@@ -5263,10 +5263,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24023227982786377</v>
+        <v>0.11555127022134659</v>
       </c>
       <c r="B142" s="2">
         <v>5</v>
@@ -5284,10 +5284,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96680961871742688</v>
+        <v>0.72575560250692872</v>
       </c>
       <c r="B143" s="2">
         <v>62</v>
@@ -5308,10 +5308,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50585844602295205</v>
+        <v>0.81673940124098932</v>
       </c>
       <c r="B144" s="2">
         <v>112</v>
@@ -5335,10 +5335,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85235398790664341</v>
+        <v>0.41842658383335696</v>
       </c>
       <c r="B145" s="2">
         <v>187</v>
@@ -5365,10 +5365,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46444976579893293</v>
+        <v>0.99775383537727536</v>
       </c>
       <c r="B146" s="2">
         <v>170</v>
@@ -5389,10 +5389,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41460962009791757</v>
+        <v>0.17774899798886479</v>
       </c>
       <c r="B147" s="2">
         <v>216</v>
@@ -5413,10 +5413,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26408726052731513</v>
+        <v>0.64501659561347024</v>
       </c>
       <c r="B148" s="2">
         <v>243</v>
@@ -5434,10 +5434,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59336930052286263</v>
+        <v>0.1052221112211208</v>
       </c>
       <c r="B149" s="2">
         <v>203</v>
@@ -5458,10 +5458,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30199492407525486</v>
+        <v>8.282534559821253E-2</v>
       </c>
       <c r="B150" s="2">
         <v>185</v>
@@ -5479,10 +5479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12895919930977395</v>
+        <v>0.34134192202603142</v>
       </c>
       <c r="B151" s="2">
         <v>118</v>
@@ -5503,10 +5503,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37356414372763402</v>
+        <v>0.6540048329372784</v>
       </c>
       <c r="B152" s="2">
         <v>79</v>
@@ -5530,10 +5530,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4853405647540803E-2</v>
+        <v>0.47093527027000526</v>
       </c>
       <c r="B153" s="2">
         <v>250</v>
@@ -5554,10 +5554,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45512997538294531</v>
+        <v>0.45091003162781196</v>
       </c>
       <c r="B154" s="2">
         <v>159</v>
@@ -5578,10 +5578,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88060354566119114</v>
+        <v>0.85799422965423877</v>
       </c>
       <c r="B155" s="2">
         <v>223</v>
@@ -5602,10 +5602,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79364775003506893</v>
+        <v>0.49913352739736716</v>
       </c>
       <c r="B156" s="2">
         <v>188</v>
@@ -5623,10 +5623,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97239448845386711</v>
+        <v>0.98029085391817705</v>
       </c>
       <c r="B157" s="2">
         <v>103</v>
@@ -5644,10 +5644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98698278618857471</v>
+        <v>0.60226248978727948</v>
       </c>
       <c r="B158" s="2">
         <v>242</v>
@@ -5668,10 +5668,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89323377273936444</v>
+        <v>0.77773499329870743</v>
       </c>
       <c r="B159" s="2">
         <v>9</v>
@@ -5692,10 +5692,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96439251227236455</v>
+        <v>0.71311153462037236</v>
       </c>
       <c r="B160" s="2">
         <v>158</v>
@@ -5713,10 +5713,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95903991344398976</v>
+        <v>0.12081047742139417</v>
       </c>
       <c r="B161" s="2">
         <v>111</v>
@@ -5737,10 +5737,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69846770228905752</v>
+        <v>0.255777743477687</v>
       </c>
       <c r="B162" s="2">
         <v>177</v>
@@ -5764,10 +5764,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67631801840748329</v>
+        <v>0.81952369491029098</v>
       </c>
       <c r="B163" s="2">
         <v>232</v>
@@ -5788,10 +5788,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3.599877324613876E-2</v>
+        <v>0.84994200755176319</v>
       </c>
       <c r="B164" s="2">
         <v>148</v>
@@ -5815,10 +5815,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36695598515812455</v>
+        <v>0.28064727017957614</v>
       </c>
       <c r="B165" s="2">
         <v>11</v>
@@ -5836,10 +5836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76116753677979021</v>
+        <v>0.86301244938978494</v>
       </c>
       <c r="B166" s="2">
         <v>58</v>
@@ -5857,10 +5857,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39930463495177448</v>
+        <v>0.26663767493900903</v>
       </c>
       <c r="B167" s="2">
         <v>155</v>
@@ -5884,10 +5884,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25642409085076601</v>
+        <v>0.57740505137130671</v>
       </c>
       <c r="B168" s="2">
         <v>38</v>
@@ -5908,10 +5908,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43969562036153287</v>
+        <v>0.1570463414401887</v>
       </c>
       <c r="B169" s="2">
         <v>72</v>
@@ -5929,10 +5929,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20681203416791005</v>
+        <v>0.40917855653649482</v>
       </c>
       <c r="B170" s="2">
         <v>190</v>
@@ -5953,10 +5953,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4411190410437863</v>
+        <v>0.33501838669446038</v>
       </c>
       <c r="B171" s="2">
         <v>198</v>
@@ -5977,10 +5977,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70802125020482032</v>
+        <v>0.85884715550098689</v>
       </c>
       <c r="B172" s="2">
         <v>123</v>
@@ -5998,10 +5998,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52779326320412268</v>
+        <v>0.78902261219686631</v>
       </c>
       <c r="B173" s="2">
         <v>128</v>
@@ -6022,10 +6022,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64562560058258589</v>
+        <v>0.96628484420019989</v>
       </c>
       <c r="B174" s="2">
         <v>147</v>
@@ -6046,10 +6046,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.524951214542003E-2</v>
+        <v>0.71461998328404375</v>
       </c>
       <c r="B175" s="2">
         <v>59</v>
@@ -6073,10 +6073,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21819760183500536</v>
+        <v>0.17130828806686449</v>
       </c>
       <c r="B176" s="2">
         <v>212</v>
@@ -6097,10 +6097,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9046975496816122</v>
+        <v>0.97846641446493943</v>
       </c>
       <c r="B177" s="2">
         <v>197</v>
@@ -6121,10 +6121,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.38236684147128996</v>
+        <v>0.97005868595646394</v>
       </c>
       <c r="B178" s="2">
         <v>245</v>
@@ -6142,10 +6142,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87843298038335516</v>
+        <v>0.11598964707709813</v>
       </c>
       <c r="B179" s="2">
         <v>98</v>
@@ -6166,10 +6166,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21487968075784381</v>
+        <v>0.95811933429035012</v>
       </c>
       <c r="B180" s="2">
         <v>13</v>
@@ -6187,10 +6187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76913533102768639</v>
+        <v>0.31312234812369655</v>
       </c>
       <c r="B181" s="2">
         <v>239</v>
@@ -6211,10 +6211,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.5962179897854456</v>
+        <v>0.39403293114145366</v>
       </c>
       <c r="B182" s="2">
         <v>176</v>
@@ -6235,10 +6235,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13867662501295575</v>
+        <v>0.68666406437668703</v>
       </c>
       <c r="B183" s="2">
         <v>140</v>
@@ -6256,10 +6256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83143321535299786</v>
+        <v>0.59468644335291898</v>
       </c>
       <c r="B184" s="2">
         <v>192</v>
@@ -6280,10 +6280,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9.0876061101230476E-3</v>
+        <v>0.69123269443177937</v>
       </c>
       <c r="B185" s="2">
         <v>262</v>
@@ -6307,10 +6307,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29837292361786816</v>
+        <v>0.9518079956523251</v>
       </c>
       <c r="B186" s="2">
         <v>171</v>
@@ -6331,10 +6331,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56999946414623137</v>
+        <v>0.32552746389374798</v>
       </c>
       <c r="B187" s="2">
         <v>142</v>
@@ -6355,10 +6355,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58941218293499531</v>
+        <v>0.62774564238762964</v>
       </c>
       <c r="B188" s="2">
         <v>74</v>
@@ -6382,10 +6382,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96330382382583557</v>
+        <v>0.8344899550292465</v>
       </c>
       <c r="B189" s="2">
         <v>206</v>
@@ -6406,10 +6406,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83428753223467533</v>
+        <v>0.59847284671243317</v>
       </c>
       <c r="B190" s="2">
         <v>160</v>
@@ -6433,10 +6433,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55090579267496631</v>
+        <v>0.95017915022846966</v>
       </c>
       <c r="B191" s="2">
         <v>17</v>
@@ -6463,10 +6463,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31680097492291903</v>
+        <v>0.59353266411420635</v>
       </c>
       <c r="B192" s="2">
         <v>256</v>
@@ -6490,10 +6490,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58486417915152811</v>
+        <v>0.41766218587561499</v>
       </c>
       <c r="B193" s="2">
         <v>71</v>
@@ -6517,10 +6517,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <f t="shared" ref="A194:A257" ca="1" si="3">RAND()</f>
-        <v>0.79069364344179516</v>
+        <v>0.16162777975526166</v>
       </c>
       <c r="B194" s="2">
         <v>200</v>
@@ -6541,10 +6541,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66236896136711576</v>
+        <v>0.75233155481529845</v>
       </c>
       <c r="B195" s="2">
         <v>183</v>
@@ -6568,10 +6568,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1264546599374432E-2</v>
+        <v>0.71256854919565782</v>
       </c>
       <c r="B196" s="2">
         <v>145</v>
@@ -6595,10 +6595,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.78666488226421283</v>
+        <v>0.79636255185330174</v>
       </c>
       <c r="B197" s="2">
         <v>168</v>
@@ -6622,10 +6622,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.4596658276582E-2</v>
+        <v>0.19419526720411628</v>
       </c>
       <c r="B198" s="2">
         <v>77</v>
@@ -6646,10 +6646,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15163827753437076</v>
+        <v>0.4397750584524498</v>
       </c>
       <c r="B199" s="2">
         <v>34</v>
@@ -6667,10 +6667,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33908664448917958</v>
+        <v>0.92735664162507769</v>
       </c>
       <c r="B200" s="2">
         <v>181</v>
@@ -6694,10 +6694,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42659354906256375</v>
+        <v>0.63327468920377761</v>
       </c>
       <c r="B201" s="2">
         <v>101</v>
@@ -6721,10 +6721,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71299746789342378</v>
+        <v>0.35545750348651128</v>
       </c>
       <c r="B202" s="2">
         <v>43</v>
@@ -6748,10 +6748,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61562322879718967</v>
+        <v>0.47722200023959938</v>
       </c>
       <c r="B203" s="2">
         <v>222</v>
@@ -6769,10 +6769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63780386976761538</v>
+        <v>0.38084630727197155</v>
       </c>
       <c r="B204" s="2">
         <v>115</v>
@@ -6799,10 +6799,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25560079550764303</v>
+        <v>0.38910936431039611</v>
       </c>
       <c r="B205" s="2">
         <v>82</v>
@@ -6826,10 +6826,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.46812079080477476</v>
+        <v>8.6566354650418065E-2</v>
       </c>
       <c r="B206" s="2">
         <v>204</v>
@@ -6850,10 +6850,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97745337232361973</v>
+        <v>0.54985906272397678</v>
       </c>
       <c r="B207" s="2">
         <v>138</v>
@@ -6874,10 +6874,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4311669792898005E-3</v>
+        <v>0.91743857601165668</v>
       </c>
       <c r="B208" s="2">
         <v>139</v>
@@ -6898,10 +6898,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80105917268103166</v>
+        <v>2.2358784057336045E-2</v>
       </c>
       <c r="B209" s="2">
         <v>195</v>
@@ -6925,10 +6925,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50880641106462132</v>
+        <v>0.57442481647303334</v>
       </c>
       <c r="B210" s="2">
         <v>172</v>
@@ -6949,10 +6949,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19472794391251769</v>
+        <v>0.24198073768544548</v>
       </c>
       <c r="B211" s="2">
         <v>191</v>
@@ -6973,10 +6973,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84685386690946174</v>
+        <v>0.17951979484232117</v>
       </c>
       <c r="B212" s="2">
         <v>28</v>
@@ -6994,10 +6994,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75603295867615505</v>
+        <v>0.59694923699728264</v>
       </c>
       <c r="B213" s="2">
         <v>230</v>
@@ -7021,10 +7021,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.77276712706500494</v>
+        <v>0.42954970694477901</v>
       </c>
       <c r="B214" s="2">
         <v>252</v>
@@ -7048,10 +7048,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21865953829368667</v>
+        <v>0.92210300373364495</v>
       </c>
       <c r="B215" s="2">
         <v>55</v>
@@ -7072,10 +7072,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96110982225051755</v>
+        <v>0.81456739047094029</v>
       </c>
       <c r="B216" s="2">
         <v>174</v>
@@ -7096,10 +7096,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.70109968078094353</v>
+        <v>0.65010906203539376</v>
       </c>
       <c r="B217" s="2">
         <v>107</v>
@@ -7117,10 +7117,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49534162179758456</v>
+        <v>0.41486427903313849</v>
       </c>
       <c r="B218" s="2">
         <v>109</v>
@@ -7144,10 +7144,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.0228915599069484E-2</v>
+        <v>0.4382040040411791</v>
       </c>
       <c r="B219" s="2">
         <v>36</v>
@@ -7168,10 +7168,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62659632329643189</v>
+        <v>8.8192882607367462E-3</v>
       </c>
       <c r="B220" s="2">
         <v>227</v>
@@ -7192,10 +7192,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.0742921288254501E-2</v>
+        <v>0.13254364893389148</v>
       </c>
       <c r="B221" s="2">
         <v>246</v>
@@ -7219,10 +7219,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.12002899185112392</v>
+        <v>0.85170445079310864</v>
       </c>
       <c r="B222" s="2">
         <v>244</v>
@@ -7240,10 +7240,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41519083438864091</v>
+        <v>0.23697611346679082</v>
       </c>
       <c r="B223" s="2">
         <v>219</v>
@@ -7264,10 +7264,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86104337280730081</v>
+        <v>0.96682676872794138</v>
       </c>
       <c r="B224" s="2">
         <v>15</v>
@@ -7291,10 +7291,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62522878221391476</v>
+        <v>0.65872931259868028</v>
       </c>
       <c r="B225" s="2">
         <v>30</v>
@@ -7318,10 +7318,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59176122501721184</v>
+        <v>0.12068441056247692</v>
       </c>
       <c r="B226" s="2">
         <v>209</v>
@@ -7342,10 +7342,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20128953782969017</v>
+        <v>0.71806575147689822</v>
       </c>
       <c r="B227" s="2">
         <v>3</v>
@@ -7363,10 +7363,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89888663283747294</v>
+        <v>0.71776098882444372</v>
       </c>
       <c r="B228" s="2">
         <v>102</v>
@@ -7387,10 +7387,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76737171127457871</v>
+        <v>0.86225814455754335</v>
       </c>
       <c r="B229" s="2">
         <v>56</v>
@@ -7414,10 +7414,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.26669484476400229</v>
+        <v>0.84013567898006913</v>
       </c>
       <c r="B230" s="2">
         <v>125</v>
@@ -7435,10 +7435,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8.3290665002428987E-3</v>
+        <v>0.91655020877583215</v>
       </c>
       <c r="B231" s="2">
         <v>92</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.8033797094037922E-2</v>
+        <v>2.6663963562912896E-2</v>
       </c>
       <c r="B232" s="2">
         <v>150</v>
@@ -7480,10 +7480,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.14517017003728083</v>
+        <v>0.75121154090424702</v>
       </c>
       <c r="B233" s="2">
         <v>233</v>
@@ -7504,10 +7504,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16230071764932763</v>
+        <v>0.64531593310150415</v>
       </c>
       <c r="B234" s="2">
         <v>152</v>
@@ -7531,10 +7531,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.24342863596092179</v>
+        <v>0.40110905736453617</v>
       </c>
       <c r="B235" s="2">
         <v>117</v>
@@ -7558,10 +7558,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.84429746096208147</v>
+        <v>0.19712231707463101</v>
       </c>
       <c r="B236" s="2">
         <v>60</v>
@@ -7585,10 +7585,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49539444471083838</v>
+        <v>0.97724648582465767</v>
       </c>
       <c r="B237" s="2">
         <v>214</v>
@@ -7609,10 +7609,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68434502758716742</v>
+        <v>0.84022880343237427</v>
       </c>
       <c r="B238" s="2">
         <v>41</v>
@@ -7636,10 +7636,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98216394190886014</v>
+        <v>0.62861218089146642</v>
       </c>
       <c r="B239" s="2">
         <v>194</v>
@@ -7657,10 +7657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.38514259402939677</v>
+        <v>0.16797116822881786</v>
       </c>
       <c r="B240" s="2">
         <v>14</v>
@@ -7684,10 +7684,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47482179439473493</v>
+        <v>0.55793259283139918</v>
       </c>
       <c r="B241" s="2">
         <v>132</v>
@@ -7711,10 +7711,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47831016025434647</v>
+        <v>0.3211312452081917</v>
       </c>
       <c r="B242" s="2">
         <v>164</v>
@@ -7735,10 +7735,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94464935307945663</v>
+        <v>5.1540587436235019E-2</v>
       </c>
       <c r="B243" s="2">
         <v>193</v>
@@ -7756,10 +7756,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.7740234903971843E-2</v>
+        <v>0.38483964096424605</v>
       </c>
       <c r="B244" s="2">
         <v>169</v>
@@ -7780,10 +7780,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47725600365287268</v>
+        <v>0.26922309398144473</v>
       </c>
       <c r="B245" s="2">
         <v>201</v>
@@ -7801,10 +7801,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3996369487064877E-3</v>
+        <v>0.8615501789383927</v>
       </c>
       <c r="B246" s="2">
         <v>135</v>
@@ -7828,10 +7828,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5631120444279597</v>
+        <v>0.44350883557587528</v>
       </c>
       <c r="B247" s="2">
         <v>253</v>
@@ -7855,10 +7855,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34754792851874228</v>
+        <v>0.24202324575058276</v>
       </c>
       <c r="B248" s="2">
         <v>94</v>
@@ -7879,10 +7879,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50250158195935835</v>
+        <v>0.45735379240435259</v>
       </c>
       <c r="B249" s="2">
         <v>106</v>
@@ -7903,10 +7903,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6706487157511396</v>
+        <v>0.12569655522522372</v>
       </c>
       <c r="B250" s="2">
         <v>202</v>
@@ -7927,10 +7927,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63600130160716828</v>
+        <v>0.31914242865389675</v>
       </c>
       <c r="B251" s="2">
         <v>236</v>
@@ -7951,10 +7951,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62851553148716754</v>
+        <v>0.5644084862049078</v>
       </c>
       <c r="B252" s="2">
         <v>95</v>
@@ -7975,10 +7975,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33213256215082942</v>
+        <v>0.64359005938170366</v>
       </c>
       <c r="B253" s="2">
         <v>44</v>
@@ -8002,10 +8002,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40725872249334838</v>
+        <v>0.22535095025269447</v>
       </c>
       <c r="B254" s="2">
         <v>35</v>
@@ -8029,10 +8029,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92536635137469148</v>
+        <v>0.77709270485474202</v>
       </c>
       <c r="B255" s="2">
         <v>108</v>
@@ -8056,10 +8056,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48307240496767778</v>
+        <v>0.85502399332485868</v>
       </c>
       <c r="B256" s="2">
         <v>263</v>
@@ -8080,10 +8080,10 @@
         <v>280</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67075455360815284</v>
+        <v>0.78485913528251927</v>
       </c>
       <c r="B257" s="2">
         <v>93</v>
@@ -8104,10 +8104,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <f t="shared" ref="A258:A265" ca="1" si="4">RAND()</f>
-        <v>7.372423852068033E-2</v>
+        <v>0.52673104057336184</v>
       </c>
       <c r="B258" s="2">
         <v>12</v>
@@ -8125,10 +8125,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.2775468817214809</v>
+        <v>0.85159733341553123</v>
       </c>
       <c r="B259" s="2">
         <v>126</v>
@@ -8152,10 +8152,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.33344547527732682</v>
+        <v>0.61146209287292597</v>
       </c>
       <c r="B260" s="2">
         <v>156</v>
@@ -8179,10 +8179,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42441087199853378</v>
+        <v>0.81694027619661613</v>
       </c>
       <c r="B261" s="2">
         <v>86</v>
@@ -8206,10 +8206,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.86427637722499984</v>
+        <v>0.80965491838284553</v>
       </c>
       <c r="B262" s="2">
         <v>27</v>
@@ -8233,10 +8233,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.85251522927869183</v>
+        <v>0.84821998223147677</v>
       </c>
       <c r="B263" s="2">
         <v>70</v>
@@ -8260,10 +8260,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.47455589918307939</v>
+        <v>0.2953110061200499</v>
       </c>
       <c r="B264" s="2">
         <v>226</v>
@@ -8284,10 +8284,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.92751864099540693</v>
+        <v>0.5604983796883376</v>
       </c>
       <c r="B265" s="2">
         <v>16</v>
@@ -8326,16 +8326,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>279</v>
       </c>
@@ -8343,7 +8343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>280</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>281</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>282</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>283</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>284</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>285</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>286</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>287</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>288</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>290</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>291</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>292</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>293</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>289</v>
       </c>
@@ -8468,9 +8468,9 @@
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>294</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>musketeers!B2</f>
         <v>88</v>
@@ -8558,7 +8558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>musketeers!B3</f>
         <v>237</v>
@@ -8608,7 +8608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>musketeers!B4</f>
         <v>7</v>
@@ -8658,7 +8658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>musketeers!B5</f>
         <v>162</v>
@@ -8708,7 +8708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>musketeers!B6</f>
         <v>129</v>
@@ -8758,7 +8758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>musketeers!B7</f>
         <v>78</v>
@@ -8808,7 +8808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>musketeers!B8</f>
         <v>64</v>
@@ -8858,7 +8858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>musketeers!B9</f>
         <v>166</v>
@@ -8908,7 +8908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>musketeers!B10</f>
         <v>127</v>
@@ -8958,7 +8958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>musketeers!B11</f>
         <v>73</v>
@@ -9008,7 +9008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>musketeers!B12</f>
         <v>65</v>
@@ -9058,7 +9058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>musketeers!B13</f>
         <v>261</v>
@@ -9108,7 +9108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>musketeers!B14</f>
         <v>210</v>
@@ -9158,7 +9158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>musketeers!B15</f>
         <v>42</v>
@@ -9208,7 +9208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>musketeers!B16</f>
         <v>57</v>
@@ -9258,7 +9258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>musketeers!B17</f>
         <v>46</v>
@@ -9308,7 +9308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>musketeers!B18</f>
         <v>29</v>
@@ -9358,7 +9358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>musketeers!B19</f>
         <v>6</v>
@@ -9408,7 +9408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>musketeers!B20</f>
         <v>113</v>
@@ -9458,7 +9458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>musketeers!B21</f>
         <v>137</v>
@@ -9508,7 +9508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>musketeers!B22</f>
         <v>196</v>
@@ -9558,7 +9558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>musketeers!B23</f>
         <v>116</v>
@@ -9608,7 +9608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>musketeers!B24</f>
         <v>238</v>
@@ -9658,7 +9658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>musketeers!B25</f>
         <v>157</v>
@@ -9708,7 +9708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>musketeers!B26</f>
         <v>264</v>
@@ -9758,7 +9758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>musketeers!B27</f>
         <v>81</v>
@@ -9808,7 +9808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>musketeers!B28</f>
         <v>104</v>
@@ -9858,7 +9858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>musketeers!B29</f>
         <v>1</v>
@@ -9908,7 +9908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>musketeers!B30</f>
         <v>68</v>
@@ -9958,7 +9958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>musketeers!B31</f>
         <v>54</v>
@@ -10008,7 +10008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>musketeers!B32</f>
         <v>208</v>
@@ -10058,7 +10058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>musketeers!B33</f>
         <v>39</v>
@@ -10108,7 +10108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>musketeers!B34</f>
         <v>119</v>
@@ -10158,7 +10158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>musketeers!B35</f>
         <v>22</v>
@@ -10208,7 +10208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>musketeers!B36</f>
         <v>240</v>
@@ -10258,7 +10258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>musketeers!B37</f>
         <v>83</v>
@@ -10308,7 +10308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>musketeers!B38</f>
         <v>234</v>
@@ -10358,7 +10358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>musketeers!B39</f>
         <v>51</v>
@@ -10408,7 +10408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>musketeers!B40</f>
         <v>153</v>
@@ -10458,7 +10458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>musketeers!B41</f>
         <v>249</v>
@@ -10508,7 +10508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>musketeers!B42</f>
         <v>173</v>
@@ -10558,7 +10558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>musketeers!B43</f>
         <v>20</v>
@@ -10608,7 +10608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>musketeers!B44</f>
         <v>211</v>
@@ -10658,7 +10658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>musketeers!B45</f>
         <v>221</v>
@@ -10708,7 +10708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>musketeers!B46</f>
         <v>235</v>
@@ -10758,7 +10758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>musketeers!B47</f>
         <v>96</v>
@@ -10808,7 +10808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>musketeers!B48</f>
         <v>76</v>
@@ -10858,7 +10858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>musketeers!B49</f>
         <v>217</v>
@@ -10908,7 +10908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>musketeers!B50</f>
         <v>24</v>
@@ -10958,7 +10958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>musketeers!B51</f>
         <v>186</v>
@@ -11008,7 +11008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>musketeers!B52</f>
         <v>40</v>
@@ -11058,7 +11058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>musketeers!B53</f>
         <v>134</v>
@@ -11108,7 +11108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>musketeers!B54</f>
         <v>122</v>
@@ -11158,7 +11158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>musketeers!B55</f>
         <v>259</v>
@@ -11208,7 +11208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>musketeers!B56</f>
         <v>141</v>
@@ -11258,7 +11258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>musketeers!B57</f>
         <v>85</v>
@@ -11308,7 +11308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>musketeers!B58</f>
         <v>105</v>
@@ -11358,7 +11358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>musketeers!B59</f>
         <v>47</v>
@@ -11408,7 +11408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>musketeers!B60</f>
         <v>124</v>
@@ -11458,7 +11458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>musketeers!B61</f>
         <v>184</v>
@@ -11508,7 +11508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>musketeers!B62</f>
         <v>48</v>
@@ -11558,7 +11558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>musketeers!B63</f>
         <v>189</v>
@@ -11608,7 +11608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>musketeers!B64</f>
         <v>8</v>
@@ -11658,7 +11658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>musketeers!B65</f>
         <v>91</v>
@@ -11708,7 +11708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>musketeers!B66</f>
         <v>2</v>
@@ -11758,7 +11758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>musketeers!B67</f>
         <v>67</v>
@@ -11808,7 +11808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>musketeers!B68</f>
         <v>63</v>
@@ -11858,7 +11858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>musketeers!B69</f>
         <v>100</v>
@@ -11908,7 +11908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>musketeers!B70</f>
         <v>178</v>
@@ -11958,7 +11958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>musketeers!B71</f>
         <v>205</v>
@@ -12008,7 +12008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>musketeers!B72</f>
         <v>165</v>
@@ -12058,7 +12058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>musketeers!B73</f>
         <v>241</v>
@@ -12108,7 +12108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>musketeers!B74</f>
         <v>167</v>
@@ -12158,7 +12158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>musketeers!B75</f>
         <v>254</v>
@@ -12208,7 +12208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>musketeers!B76</f>
         <v>69</v>
@@ -12258,7 +12258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>musketeers!B77</f>
         <v>130</v>
@@ -12308,7 +12308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>musketeers!B78</f>
         <v>257</v>
@@ -12358,7 +12358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>musketeers!B79</f>
         <v>23</v>
@@ -12408,7 +12408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>musketeers!B80</f>
         <v>32</v>
@@ -12458,7 +12458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>musketeers!B81</f>
         <v>120</v>
@@ -12508,7 +12508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>musketeers!B82</f>
         <v>213</v>
@@ -12558,7 +12558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>musketeers!B83</f>
         <v>136</v>
@@ -12608,7 +12608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>musketeers!B84</f>
         <v>154</v>
@@ -12658,7 +12658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>musketeers!B85</f>
         <v>180</v>
@@ -12708,7 +12708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>musketeers!B86</f>
         <v>133</v>
@@ -12758,7 +12758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>musketeers!B87</f>
         <v>89</v>
@@ -12808,7 +12808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>musketeers!B88</f>
         <v>114</v>
@@ -12858,7 +12858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>musketeers!B89</f>
         <v>163</v>
@@ -12908,7 +12908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>musketeers!B90</f>
         <v>75</v>
@@ -12958,7 +12958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>musketeers!B91</f>
         <v>87</v>
@@ -13008,7 +13008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>musketeers!B92</f>
         <v>251</v>
@@ -13058,7 +13058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>musketeers!B93</f>
         <v>18</v>
@@ -13108,7 +13108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>musketeers!B94</f>
         <v>50</v>
@@ -13158,7 +13158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>musketeers!B95</f>
         <v>218</v>
@@ -13208,7 +13208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>musketeers!B96</f>
         <v>149</v>
@@ -13258,7 +13258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>musketeers!B97</f>
         <v>99</v>
@@ -13308,7 +13308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>musketeers!B98</f>
         <v>49</v>
@@ -13358,7 +13358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>musketeers!B99</f>
         <v>21</v>
@@ -13408,7 +13408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>musketeers!B100</f>
         <v>215</v>
@@ -13458,7 +13458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>musketeers!B101</f>
         <v>229</v>
@@ -13508,7 +13508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>musketeers!B102</f>
         <v>146</v>
@@ -13558,7 +13558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>musketeers!B103</f>
         <v>258</v>
@@ -13608,7 +13608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>musketeers!B104</f>
         <v>90</v>
@@ -13658,7 +13658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>musketeers!B105</f>
         <v>143</v>
@@ -13708,7 +13708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>musketeers!B106</f>
         <v>151</v>
@@ -13758,7 +13758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>musketeers!B107</f>
         <v>25</v>
@@ -13808,7 +13808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>musketeers!B108</f>
         <v>247</v>
@@ -13858,7 +13858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>musketeers!B109</f>
         <v>37</v>
@@ -13908,7 +13908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110">
         <f>musketeers!B110</f>
         <v>52</v>
@@ -13958,7 +13958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111">
         <f>musketeers!B111</f>
         <v>131</v>
@@ -14008,7 +14008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112">
         <f>musketeers!B112</f>
         <v>97</v>
@@ -14058,7 +14058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <f>musketeers!B113</f>
         <v>224</v>
@@ -14108,7 +14108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <f>musketeers!B114</f>
         <v>225</v>
@@ -14158,7 +14158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <f>musketeers!B115</f>
         <v>84</v>
@@ -14208,7 +14208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <f>musketeers!B116</f>
         <v>220</v>
@@ -14258,7 +14258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <f>musketeers!B117</f>
         <v>231</v>
@@ -14308,7 +14308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <f>musketeers!B118</f>
         <v>144</v>
@@ -14358,7 +14358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <f>musketeers!B119</f>
         <v>110</v>
@@ -14408,7 +14408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <f>musketeers!B120</f>
         <v>175</v>
@@ -14458,7 +14458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <f>musketeers!B121</f>
         <v>260</v>
@@ -14508,7 +14508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <f>musketeers!B122</f>
         <v>26</v>
@@ -14558,7 +14558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <f>musketeers!B123</f>
         <v>182</v>
@@ -14608,7 +14608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <f>musketeers!B124</f>
         <v>61</v>
@@ -14658,7 +14658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <f>musketeers!B125</f>
         <v>207</v>
@@ -14708,7 +14708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <f>musketeers!B126</f>
         <v>161</v>
@@ -14758,7 +14758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <f>musketeers!B127</f>
         <v>53</v>
@@ -14808,7 +14808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <f>musketeers!B128</f>
         <v>199</v>
@@ -14858,7 +14858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <f>musketeers!B129</f>
         <v>4</v>
@@ -14908,7 +14908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <f>musketeers!B130</f>
         <v>179</v>
@@ -14958,7 +14958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <f>musketeers!B131</f>
         <v>121</v>
@@ -15008,7 +15008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <f>musketeers!B132</f>
         <v>19</v>
@@ -15058,7 +15058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <f>musketeers!B133</f>
         <v>66</v>
@@ -15108,7 +15108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <f>musketeers!B134</f>
         <v>228</v>
@@ -15158,7 +15158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <f>musketeers!B135</f>
         <v>248</v>
@@ -15208,7 +15208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <f>musketeers!B136</f>
         <v>80</v>
@@ -15258,7 +15258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <f>musketeers!B137</f>
         <v>33</v>
@@ -15308,7 +15308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <f>musketeers!B138</f>
         <v>45</v>
@@ -15358,7 +15358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <f>musketeers!B139</f>
         <v>31</v>
@@ -15408,7 +15408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <f>musketeers!B140</f>
         <v>255</v>
@@ -15458,7 +15458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <f>musketeers!B141</f>
         <v>10</v>
@@ -15508,7 +15508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <f>musketeers!B142</f>
         <v>5</v>
@@ -15558,7 +15558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <f>musketeers!B143</f>
         <v>62</v>
@@ -15608,7 +15608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <f>musketeers!B144</f>
         <v>112</v>
@@ -15658,7 +15658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <f>musketeers!B145</f>
         <v>187</v>
@@ -15708,7 +15708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <f>musketeers!B146</f>
         <v>170</v>
@@ -15758,7 +15758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <f>musketeers!B147</f>
         <v>216</v>
@@ -15808,7 +15808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <f>musketeers!B148</f>
         <v>243</v>
@@ -15858,7 +15858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <f>musketeers!B149</f>
         <v>203</v>
@@ -15908,7 +15908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <f>musketeers!B150</f>
         <v>185</v>
@@ -15958,7 +15958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <f>musketeers!B151</f>
         <v>118</v>
@@ -16008,7 +16008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <f>musketeers!B152</f>
         <v>79</v>
@@ -16058,7 +16058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <f>musketeers!B153</f>
         <v>250</v>
@@ -16108,7 +16108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <f>musketeers!B154</f>
         <v>159</v>
@@ -16158,7 +16158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <f>musketeers!B155</f>
         <v>223</v>
@@ -16208,7 +16208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <f>musketeers!B156</f>
         <v>188</v>
@@ -16258,7 +16258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <f>musketeers!B157</f>
         <v>103</v>
@@ -16308,7 +16308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <f>musketeers!B158</f>
         <v>242</v>
@@ -16358,7 +16358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <f>musketeers!B159</f>
         <v>9</v>
@@ -16408,7 +16408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <f>musketeers!B160</f>
         <v>158</v>
@@ -16458,7 +16458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161">
         <f>musketeers!B161</f>
         <v>111</v>
@@ -16508,7 +16508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162">
         <f>musketeers!B162</f>
         <v>177</v>
@@ -16558,7 +16558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163">
         <f>musketeers!B163</f>
         <v>232</v>
@@ -16608,7 +16608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164">
         <f>musketeers!B164</f>
         <v>148</v>
@@ -16658,7 +16658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165">
         <f>musketeers!B165</f>
         <v>11</v>
@@ -16708,7 +16708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166">
         <f>musketeers!B166</f>
         <v>58</v>
@@ -16758,7 +16758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167">
         <f>musketeers!B167</f>
         <v>155</v>
@@ -16808,7 +16808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168">
         <f>musketeers!B168</f>
         <v>38</v>
@@ -16858,7 +16858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169">
         <f>musketeers!B169</f>
         <v>72</v>
@@ -16908,7 +16908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170">
         <f>musketeers!B170</f>
         <v>190</v>
@@ -16958,7 +16958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171">
         <f>musketeers!B171</f>
         <v>198</v>
@@ -17008,7 +17008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172">
         <f>musketeers!B172</f>
         <v>123</v>
@@ -17058,7 +17058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173">
         <f>musketeers!B173</f>
         <v>128</v>
@@ -17108,7 +17108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174">
         <f>musketeers!B174</f>
         <v>147</v>
@@ -17158,7 +17158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175">
         <f>musketeers!B175</f>
         <v>59</v>
@@ -17208,7 +17208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176">
         <f>musketeers!B176</f>
         <v>212</v>
@@ -17258,7 +17258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177">
         <f>musketeers!B177</f>
         <v>197</v>
@@ -17308,7 +17308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178">
         <f>musketeers!B178</f>
         <v>245</v>
@@ -17358,7 +17358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179">
         <f>musketeers!B179</f>
         <v>98</v>
@@ -17408,7 +17408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180">
         <f>musketeers!B180</f>
         <v>13</v>
@@ -17458,7 +17458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181">
         <f>musketeers!B181</f>
         <v>239</v>
@@ -17508,7 +17508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182">
         <f>musketeers!B182</f>
         <v>176</v>
@@ -17558,7 +17558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183">
         <f>musketeers!B183</f>
         <v>140</v>
@@ -17608,7 +17608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184">
         <f>musketeers!B184</f>
         <v>192</v>
@@ -17658,7 +17658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185">
         <f>musketeers!B185</f>
         <v>262</v>
@@ -17708,7 +17708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186">
         <f>musketeers!B186</f>
         <v>171</v>
@@ -17758,7 +17758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187">
         <f>musketeers!B187</f>
         <v>142</v>
@@ -17808,7 +17808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188">
         <f>musketeers!B188</f>
         <v>74</v>
@@ -17858,7 +17858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189">
         <f>musketeers!B189</f>
         <v>206</v>
@@ -17908,7 +17908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190">
         <f>musketeers!B190</f>
         <v>160</v>
@@ -17958,7 +17958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191">
         <f>musketeers!B191</f>
         <v>17</v>
@@ -18008,7 +18008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192">
         <f>musketeers!B192</f>
         <v>256</v>
@@ -18058,7 +18058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193">
         <f>musketeers!B193</f>
         <v>71</v>
@@ -18108,7 +18108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194">
         <f>musketeers!B194</f>
         <v>200</v>
@@ -18158,7 +18158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195">
         <f>musketeers!B195</f>
         <v>183</v>
@@ -18208,7 +18208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A196">
         <f>musketeers!B196</f>
         <v>145</v>
@@ -18258,7 +18258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197">
         <f>musketeers!B197</f>
         <v>168</v>
@@ -18308,7 +18308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198">
         <f>musketeers!B198</f>
         <v>77</v>
@@ -18358,7 +18358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199">
         <f>musketeers!B199</f>
         <v>34</v>
@@ -18408,7 +18408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200">
         <f>musketeers!B200</f>
         <v>181</v>
@@ -18458,7 +18458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A201">
         <f>musketeers!B201</f>
         <v>101</v>
@@ -18508,7 +18508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202">
         <f>musketeers!B202</f>
         <v>43</v>
@@ -18558,7 +18558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203">
         <f>musketeers!B203</f>
         <v>222</v>
@@ -18608,7 +18608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204">
         <f>musketeers!B204</f>
         <v>115</v>
@@ -18658,7 +18658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A205">
         <f>musketeers!B205</f>
         <v>82</v>
@@ -18708,7 +18708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206">
         <f>musketeers!B206</f>
         <v>204</v>
@@ -18758,7 +18758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207">
         <f>musketeers!B207</f>
         <v>138</v>
@@ -18808,7 +18808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208">
         <f>musketeers!B208</f>
         <v>139</v>
@@ -18858,7 +18858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209">
         <f>musketeers!B209</f>
         <v>195</v>
@@ -18908,7 +18908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210">
         <f>musketeers!B210</f>
         <v>172</v>
@@ -18958,7 +18958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211">
         <f>musketeers!B211</f>
         <v>191</v>
@@ -19008,7 +19008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212">
         <f>musketeers!B212</f>
         <v>28</v>
@@ -19058,7 +19058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213">
         <f>musketeers!B213</f>
         <v>230</v>
@@ -19108,7 +19108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214">
         <f>musketeers!B214</f>
         <v>252</v>
@@ -19158,7 +19158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215">
         <f>musketeers!B215</f>
         <v>55</v>
@@ -19208,7 +19208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216">
         <f>musketeers!B216</f>
         <v>174</v>
@@ -19258,7 +19258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217">
         <f>musketeers!B217</f>
         <v>107</v>
@@ -19308,7 +19308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218">
         <f>musketeers!B218</f>
         <v>109</v>
@@ -19358,7 +19358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219">
         <f>musketeers!B219</f>
         <v>36</v>
@@ -19408,7 +19408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220">
         <f>musketeers!B220</f>
         <v>227</v>
@@ -19458,7 +19458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221">
         <f>musketeers!B221</f>
         <v>246</v>
@@ -19508,7 +19508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222">
         <f>musketeers!B222</f>
         <v>244</v>
@@ -19558,7 +19558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223">
         <f>musketeers!B223</f>
         <v>219</v>
@@ -19608,7 +19608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224">
         <f>musketeers!B224</f>
         <v>15</v>
@@ -19658,7 +19658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225">
         <f>musketeers!B225</f>
         <v>30</v>
@@ -19708,7 +19708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226">
         <f>musketeers!B226</f>
         <v>209</v>
@@ -19758,7 +19758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227">
         <f>musketeers!B227</f>
         <v>3</v>
@@ -19808,7 +19808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228">
         <f>musketeers!B228</f>
         <v>102</v>
@@ -19858,7 +19858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229">
         <f>musketeers!B229</f>
         <v>56</v>
@@ -19908,7 +19908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230">
         <f>musketeers!B230</f>
         <v>125</v>
@@ -19958,7 +19958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231">
         <f>musketeers!B231</f>
         <v>92</v>
@@ -20008,7 +20008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232">
         <f>musketeers!B232</f>
         <v>150</v>
@@ -20058,7 +20058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233">
         <f>musketeers!B233</f>
         <v>233</v>
@@ -20108,7 +20108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234">
         <f>musketeers!B234</f>
         <v>152</v>
@@ -20158,7 +20158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235">
         <f>musketeers!B235</f>
         <v>117</v>
@@ -20208,7 +20208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236">
         <f>musketeers!B236</f>
         <v>60</v>
@@ -20258,7 +20258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237">
         <f>musketeers!B237</f>
         <v>214</v>
@@ -20308,7 +20308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238">
         <f>musketeers!B238</f>
         <v>41</v>
@@ -20358,7 +20358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239">
         <f>musketeers!B239</f>
         <v>194</v>
@@ -20408,7 +20408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240">
         <f>musketeers!B240</f>
         <v>14</v>
@@ -20458,7 +20458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241">
         <f>musketeers!B241</f>
         <v>132</v>
@@ -20508,7 +20508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242">
         <f>musketeers!B242</f>
         <v>164</v>
@@ -20558,7 +20558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243">
         <f>musketeers!B243</f>
         <v>193</v>
@@ -20608,7 +20608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244">
         <f>musketeers!B244</f>
         <v>169</v>
@@ -20658,7 +20658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245">
         <f>musketeers!B245</f>
         <v>201</v>
@@ -20708,7 +20708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246">
         <f>musketeers!B246</f>
         <v>135</v>
@@ -20758,7 +20758,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247">
         <f>musketeers!B247</f>
         <v>253</v>
@@ -20808,7 +20808,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248">
         <f>musketeers!B248</f>
         <v>94</v>
@@ -20858,7 +20858,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249">
         <f>musketeers!B249</f>
         <v>106</v>
@@ -20908,7 +20908,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250">
         <f>musketeers!B250</f>
         <v>202</v>
@@ -20958,7 +20958,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251">
         <f>musketeers!B251</f>
         <v>236</v>
@@ -21008,7 +21008,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252">
         <f>musketeers!B252</f>
         <v>95</v>
@@ -21058,7 +21058,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253">
         <f>musketeers!B253</f>
         <v>44</v>
@@ -21108,7 +21108,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254">
         <f>musketeers!B254</f>
         <v>35</v>
@@ -21158,7 +21158,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255">
         <f>musketeers!B255</f>
         <v>108</v>
@@ -21208,7 +21208,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256">
         <f>musketeers!B256</f>
         <v>263</v>
@@ -21258,7 +21258,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257">
         <f>musketeers!B257</f>
         <v>93</v>
@@ -21308,7 +21308,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A258">
         <f>musketeers!B258</f>
         <v>12</v>
@@ -21358,7 +21358,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259">
         <f>musketeers!B259</f>
         <v>126</v>
@@ -21408,7 +21408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260">
         <f>musketeers!B260</f>
         <v>156</v>
@@ -21458,7 +21458,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261">
         <f>musketeers!B261</f>
         <v>86</v>
@@ -21508,7 +21508,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262">
         <f>musketeers!B262</f>
         <v>27</v>
@@ -21558,7 +21558,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263">
         <f>musketeers!B263</f>
         <v>70</v>
@@ -21608,7 +21608,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264">
         <f>musketeers!B264</f>
         <v>226</v>
@@ -21658,7 +21658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265">
         <f>musketeers!B265</f>
         <v>16</v>
@@ -21721,9 +21721,9 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
         <v>269</v>
       </c>
@@ -21755,7 +21755,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -21804,7 +21804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -21853,7 +21853,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>68</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>75</v>
       </c>
@@ -21951,7 +21951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>102</v>
       </c>
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1004</v>
       </c>
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>110</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>111</v>
       </c>
@@ -22147,7 +22147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>120</v>
       </c>
@@ -22196,7 +22196,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>119</v>
       </c>
@@ -22245,7 +22245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1000</v>
       </c>
@@ -22294,7 +22294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1002</v>
       </c>
@@ -22392,7 +22392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1003</v>
       </c>
@@ -22441,7 +22441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>999</v>
       </c>
